--- a/RoperSpreadSheet2.xlsx
+++ b/RoperSpreadSheet2.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\git\rsfh-alz-intake-b\java\RoperALZIntake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingPin\Desktop\trident classes\Roper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632CA2F4-C8F4-466A-9203-B7E966142F0F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC4999CB-EBFA-413F-BBE6-3100895EAC87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11370" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="participantData" sheetId="1" r:id="rId1"/>
-    <sheet name="Symptoms" sheetId="7" r:id="rId2"/>
-    <sheet name="HPOA" sheetId="8" r:id="rId3"/>
-    <sheet name="Medical History" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
-    <sheet name="testScores" sheetId="4" r:id="rId6"/>
-    <sheet name="Referralsheet" sheetId="2" r:id="rId7"/>
-    <sheet name="Current Studies" sheetId="6" r:id="rId8"/>
-    <sheet name="OptInEamils" sheetId="3" r:id="rId9"/>
-    <sheet name="Formulas&amp;Tables" sheetId="5" r:id="rId10"/>
+    <sheet name="Participant Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Status" sheetId="10" r:id="rId2"/>
+    <sheet name="Status(A)" sheetId="11" r:id="rId3"/>
+    <sheet name="Symptoms" sheetId="7" r:id="rId4"/>
+    <sheet name="HPOA" sheetId="8" r:id="rId5"/>
+    <sheet name="Medical History" sheetId="9" r:id="rId6"/>
+    <sheet name="Test Scores" sheetId="4" r:id="rId7"/>
+    <sheet name="Referral Sheet" sheetId="2" r:id="rId8"/>
+    <sheet name="Current Studies" sheetId="6" r:id="rId9"/>
+    <sheet name="OptInEamils" sheetId="3" r:id="rId10"/>
+    <sheet name="Formulas&amp;Tables" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable1" hidden="1">Referals[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable2" hidden="1">Symptoms!$B$1:$AD$1</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -72,7 +72,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_newdatabase.xlsxTable2"/>
+          <x15:rangePr sourceName=""/>
         </x15:connection>
       </ext>
     </extLst>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="133">
   <si>
     <t>Last Name</t>
   </si>
@@ -236,9 +236,6 @@
     <t>Roper St. Francis Participant Data</t>
   </si>
   <si>
-    <t>Column3</t>
-  </si>
-  <si>
     <t>Address 2</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>OptInEmails</t>
   </si>
   <si>
-    <t>CRD</t>
-  </si>
-  <si>
     <t>LMD</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>End Date3</t>
-  </si>
-  <si>
     <t>Rivastigmine (Exelon)</t>
   </si>
   <si>
@@ -389,25 +380,7 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>Start Date2</t>
-  </si>
-  <si>
-    <t>Start Date3</t>
-  </si>
-  <si>
-    <t>Start Date4</t>
-  </si>
-  <si>
-    <t>Start Date5</t>
-  </si>
-  <si>
-    <t>End Date2</t>
-  </si>
-  <si>
-    <t>End Date4</t>
-  </si>
-  <si>
-    <t>End Date5</t>
+    <t>Diagnosis</t>
   </si>
   <si>
     <t>Clinician</t>
@@ -416,27 +389,107 @@
     <t>Date of Diagnosis</t>
   </si>
   <si>
+    <t>Related Symptoms</t>
+  </si>
+  <si>
     <t>Difficulty Planning</t>
   </si>
   <si>
     <t>Difficulty with Familiar Tasks</t>
   </si>
   <si>
+    <t>Dificulty With Workds</t>
+  </si>
+  <si>
     <t>Family History</t>
   </si>
   <si>
-    <t>Dificulty With Words</t>
+    <t>CDR</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduled </t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>No further action</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
+    <t>Filed with completed SCAs</t>
+  </si>
+  <si>
+    <t>Hold for future studies</t>
+  </si>
+  <si>
+    <t>Filed with interest in future studies</t>
+  </si>
+  <si>
+    <t>Not eligible for current studies</t>
+  </si>
+  <si>
+    <t>Intake completed and reviewed</t>
+  </si>
+  <si>
+    <t>Conf email and ROI sent</t>
+  </si>
+  <si>
+    <t>Waiting on med records</t>
+  </si>
+  <si>
+    <t>Initial review complete</t>
+  </si>
+  <si>
+    <t>Waiting on MD review/dx discussion</t>
+  </si>
+  <si>
+    <t>Waiting on clinician review &amp; dx discussion</t>
+  </si>
+  <si>
+    <t>Dx discussion complete</t>
+  </si>
+  <si>
+    <t>Hold Status</t>
+  </si>
+  <si>
+    <t>Intake completed</t>
+  </si>
+  <si>
+    <t>Clinician review of intake completed</t>
+  </si>
+  <si>
+    <t>MMSE</t>
+  </si>
+  <si>
+    <t>SCA Initial review complete</t>
+  </si>
+  <si>
+    <t>SCA clinician review complete</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Placed in Study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,8 +513,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,13 +540,62 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,27 +633,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     </dxf>
@@ -588,25 +778,25 @@
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Last Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="First Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DOB" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="age" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DOB" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="age" dataDxfId="22"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Race"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gender"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Address"/>
-    <tableColumn id="20" xr3:uid="{A6CC2B3B-B730-4C77-8E1B-8524D8058490}" name="Address 2"/>
-    <tableColumn id="21" xr3:uid="{96274CA0-21F6-42F8-A6CC-1564219BEB3F}" name="City"/>
-    <tableColumn id="19" xr3:uid="{3564AF9A-9735-4F3E-B265-F58EE3E46F08}" name="State"/>
-    <tableColumn id="22" xr3:uid="{02668A8C-68D9-4CCB-B7C0-A7A59994786C}" name="Postal Code"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Address 2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="City"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="State"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Postal Code"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Email Address"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phone Number" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Test Date" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="W - Score" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="7s - Score" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Status" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{3F5E6B97-A5B9-4817-AC85-33BE5E2BCDF7}" name="Deseased" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phone Number" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Test Date" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="W - Score" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="7s - Score" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Status" dataDxfId="17"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Deseased" dataDxfId="16"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="PCP"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Specialist"/>
-    <tableColumn id="25" xr3:uid="{98A49C78-82DD-424A-8F17-624EB4D4CC19}" name="Current Study"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Current Study"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Referral"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Mailing List"/>
   </tableColumns>
@@ -615,98 +805,107 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E40AF23-610D-4EC7-A66A-DA2138575868}" name="Table8" displayName="Table8" ref="B1:L2" totalsRowShown="0">
-  <autoFilter ref="B1:L2" xr:uid="{E1AC3B19-A064-4128-B3BA-141573B0562E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table8" displayName="Table8" ref="B1:L2" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FBF39B74-1F93-40DE-B247-52AB3A3914E5}" name="First Name"/>
-    <tableColumn id="22" xr3:uid="{CFB0B9BF-639D-420B-8D0A-DB08BE1B88B3}" name="Last Name"/>
-    <tableColumn id="21" xr3:uid="{53C6F6EF-BF5B-44A2-9690-6D0066EAB7CD}" name="HOPA (yes/no)"/>
-    <tableColumn id="2" xr3:uid="{BA4DFCD6-F28F-48F6-BB67-590727F6ADCD}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{A97C4BEA-38D3-4169-84A9-DE5B8635B5CD}" name="Phone"/>
-    <tableColumn id="4" xr3:uid="{6CD1992B-C087-40A4-AF23-0EF93A276E3C}" name="Legally Married"/>
-    <tableColumn id="5" xr3:uid="{739F4D16-377C-4146-8BC2-1C0F5FC11E16}" name="Spouse"/>
-    <tableColumn id="6" xr3:uid="{A2283406-EBF1-4835-98F1-D23BD90027A7}" name="Phone2"/>
-    <tableColumn id="7" xr3:uid="{8694710A-4060-42A7-AF99-26FFFB6BE625}" name="Children"/>
-    <tableColumn id="8" xr3:uid="{AE960E8E-0B09-4C2D-AC96-BF4A0BEC92D7}" name="Names"/>
-    <tableColumn id="9" xr3:uid="{23FC0A40-5F3F-4AD9-ACAF-B458899FA4EF}" name="Phones"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="First Name" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Last Name" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="HOPA (yes/no)" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Phone" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Legally Married" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Spouse" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Phone2" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Children" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Names" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phones" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FB3847B3-1091-4A82-96A1-8E8CFA4034B1}" name="Table9" displayName="Table9" ref="B1:J2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="B1:J2" xr:uid="{F7B214A1-CEAE-4948-A394-EACC13E52596}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table9" displayName="Table9" ref="B1:J2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="B1:J2" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6F3461ED-C8B4-4492-9AC0-599A884F6A9E}" name="First Name"/>
-    <tableColumn id="2" xr3:uid="{74B815AD-B6BC-43FE-B0E8-6E611995081D}" name="Last Name"/>
-    <tableColumn id="3" xr3:uid="{C637D2BD-1710-4FA7-8DE9-D9160961B3C0}" name="Schizophrenia,Bipolar, Major Depressive Disorder"/>
-    <tableColumn id="4" xr3:uid="{F24F38A4-5B18-42ED-B871-877809A01F24}" name="Sleep Disorder"/>
-    <tableColumn id="5" xr3:uid="{2839D78C-83B8-45AE-9013-C309B842DD56}" name="Cancer"/>
-    <tableColumn id="6" xr3:uid="{D7D362E0-B93D-4173-9D1B-6F713520656D}" name="Type of cancer"/>
-    <tableColumn id="7" xr3:uid="{C6EF817D-0DAC-49B7-AEDE-9536F850C4A0}" name="Pacemaker or MRI incompatible Device"/>
-    <tableColumn id="8" xr3:uid="{851BEC84-1DFC-4DB7-A03A-5B9805517E87}" name="Drug or alchohol abuse"/>
-    <tableColumn id="9" xr3:uid="{7D4FA164-786F-42B5-9FC7-3DAC1682C029}" name="On Going Problems"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="First Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Last Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Schizophrenia,Bipolar, Major Depressive Disorder"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Sleep Disorder"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Cancer"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Type of cancer"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Pacemaker or MRI incompatible Device"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Drug or alchohol abuse"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="On Going Problems"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TestScores" displayName="TestScores" ref="A1:I32" totalsRowShown="0">
-  <autoFilter ref="A1:I32" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Last Name"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="First Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Test"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Date"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="W- score"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="7-score"/>
-    <tableColumn id="7" xr3:uid="{73A63323-73D0-4BD6-B700-273ED418AFD0}" name="CRD"/>
-    <tableColumn id="8" xr3:uid="{8C4C9C6C-D932-4492-83D9-EF8AA3B9594D}" name="LMD"/>
-    <tableColumn id="9" xr3:uid="{19D02257-082F-4200-B27E-1D6D79F59AD8}" name="Column3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TestScores" displayName="TestScores" ref="B1:I2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="B1:I2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Last Name"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="First Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Test"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="W- score"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="7-score"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="CDR"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="LMD"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Referals" displayName="Referals" ref="B2:B30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Referals" displayName="Referals" ref="B2:B30" totalsRowShown="0">
   <autoFilter ref="B2:B30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Referals"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Referals"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{58406E35-D93C-4D3E-88D6-AC79BD500D3A}" name="Studies" displayName="Studies" ref="B2:B11" totalsRowShown="0">
-  <autoFilter ref="B2:B11" xr:uid="{B1FCC2A1-DF48-4F79-8FCB-DB88BAFD76A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Studies" displayName="Studies" ref="B2:B11" totalsRowShown="0">
+  <autoFilter ref="B2:B11" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FC3B7099-14D8-4512-9583-AF23E8DE88A0}" name="Studies"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Studies"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{937CA078-BB36-4EC9-8760-8D270CC5FAC5}" name="Emails" displayName="Emails" ref="B2:B32" totalsRowShown="0">
-  <autoFilter ref="B2:B32" xr:uid="{CD5E52FE-0FBA-4585-BB8A-AF0121AEA9E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Emails" displayName="Emails" ref="B2:B32" totalsRowShown="0">
+  <autoFilter ref="B2:B32" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{37155562-77A4-43EE-A29A-0B1862B52782}" name="OptInEmails"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="OptInEmails"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5AD7D3A-236A-42F2-8BAD-957E12CE3E0B}" name="YesNo" displayName="YesNo" ref="G3:G6" totalsRowShown="0">
-  <autoFilter ref="G3:G6" xr:uid="{F59ACE9F-D7BA-45D2-A818-2F906660C99A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="YesNo" displayName="YesNo" ref="G3:G6" totalsRowShown="0">
+  <autoFilter ref="G3:G6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9BE15266-1ADB-4610-9896-1E6F8723D194}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table2" displayName="Table2" ref="I3:I9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="I3:I9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Column1" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -974,86 +1173,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AW7"/>
+  <dimension ref="B1:AE6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="17" width="16.5546875" style="2" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="31" style="2" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.44140625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="2.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="31" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="24" customWidth="1"/>
+    <col min="21" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
+    <col min="28" max="28" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1076,16 +1277,16 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
@@ -1106,7 +1307,7 @@
         <v>44</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
         <v>9</v>
@@ -1115,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
         <v>11</v>
@@ -1124,31 +1325,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D5" s="10"/>
-      <c r="E5"/>
-      <c r="N5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D6" s="11"/>
-      <c r="E6"/>
-      <c r="N6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D7" s="12"/>
-      <c r="E7"/>
-      <c r="N7"/>
-      <c r="R7"/>
-      <c r="S7"/>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AE5" s="4"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AE6" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1160,19 +1346,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D75DDE49-0DF0-4E20-9C93-4A048040F42D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Referralsheet!$B$3:$B$30</xm:f>
+            <xm:f>'Referral Sheet'!$B$3:$B$30</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F5948E2-1BF3-4171-99C5-7D3D68F37AD0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Current Studies'!$B$4:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C3053FDD-2C11-42FF-B550-EA3C44BA6277}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Formulas&amp;Tables'!$G$5:$G$6</xm:f>
           </x14:formula1>
@@ -1185,31 +1371,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E28FDDA-5349-4591-8391-A89BA5844250}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="C3:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1221,203 +1397,1267 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92453969-76DE-496C-810D-64CBD3ABA112}">
-  <dimension ref="B1:AD4"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="8" t="s">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="I4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="8" t="s">
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="W3" s="11"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="W4" s="12"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:T9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="24"/>
+      <c r="M1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O5" s="8"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O7" s="8"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>'Formulas&amp;Tables'!$I$4:$I$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>T3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB75606E-25D7-4AD6-8758-1B31735D26A0}">
-  <dimension ref="B1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" t="s">
-        <v>90</v>
-      </c>
+      <c r="D1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="29"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O1:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>'Formulas&amp;Tables'!$I$4:$I$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>'Current Studies'!$B$4:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>O3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:AF21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="19" width="12" customWidth="1"/>
+    <col min="21" max="22" width="12" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="28" max="28" width="12" customWidth="1"/>
+    <col min="31" max="31" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="17"/>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="20"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="17"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="20"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="17"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="20"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="17"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="20"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="17"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="20"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="17"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="20"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="17"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="20"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="17"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="20"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="17"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="20"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="17"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>'Formulas&amp;Tables'!$G$4:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I21 R2:R21 U2:U21 X2:X21 AA2:AA21 AD2:AD21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="12" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{18BCF577-79B0-4309-8F37-A4292B5874E1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>'Formulas&amp;Tables'!$G$4:$G$6</xm:f>
           </x14:formula1>
@@ -1429,28 +2669,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0475754B-9239-44D6-90D5-5F9162FAF643}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1458,166 +2698,26 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398006EE-84BB-44A2-A87B-183B4C4D75AC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1628,167 +2728,52 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="str">
-        <f>Referals[[#All],[Referals]]</f>
-        <v>A4 AARP Ad</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,61 +2784,166 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA51D1-84BF-4F18-8CF3-D76920A1D960}">
-  <dimension ref="B2:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="str">
+        <f>Referals[[#All],[Referals]]</f>
+        <v>A4 AARP Ad</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1865,22 +2955,61 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
